--- a/séries AirLiquide_modif.xlsx
+++ b/séries AirLiquide_modif.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal_projects\Finance\dividend-model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal_projects\Finance\DividendModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4374BCA9-F2F9-42B4-BDCF-7A95E3AACD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF1CDBD-BB56-4679-809E-7171941885F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1399,7 +1399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1408,6 +1408,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1718,7 +1719,7 @@
   <dimension ref="A1:N399"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,13 +1742,13 @@
       <c r="F1" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="8" t="s">
         <v>412</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="8" t="s">
         <v>413</v>
       </c>
       <c r="J1" s="6" t="s">
@@ -18303,7 +18304,7 @@
         <v>1.5862589594173035E-3</v>
       </c>
       <c r="K388">
-        <f t="shared" ref="K388:K399" si="36">(C389/D388)-G388</f>
+        <f t="shared" ref="K388:K398" si="36">(C389/D388)-G388</f>
         <v>2.3271774423680579E-2</v>
       </c>
       <c r="L388">
